--- a/ConfigFiles/ConfigNL.xlsx
+++ b/ConfigFiles/ConfigNL.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="7425" windowHeight="1815"/>
@@ -12,6 +12,7 @@
     <sheet name="ReserveParticipation" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -977,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,7 +1176,7 @@
         <v>41</v>
       </c>
       <c r="C32" s="21">
-        <v>42369</v>
+        <v>42024</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>77</v>
@@ -2101,91 +2102,8 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B4:H4"/>
   </mergeCells>
-  <dataValidations count="15">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path the outage data" prompt="Select the path the outage csv file from the database._x000a__x000a_The path should be relative to this excel file. Use &quot;..&quot; to go up one folder. Folder separator can be either &quot;/&quot; or &quot;\&quot;" sqref="C63"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path the simulation directory" prompt="All inputs are saved in the so-called simulation directory, which includes, excel , gdx and pickle files together with the GAMS files._x000a__x000a_The path should be relative to this excel file. Use &quot;..&quot; to go up one folder. Folder separator can be either &quot;/&quot; or &quot;\&quot;" sqref="C18:D18"/>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Start day of the simulation" prompt="This is the simulated day. It must be comprised within the range of dates provided within the data files." sqref="C31:D31">
-      <formula1>1</formula1>
-      <formula2>73051</formula2>
-    </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Stop day of the simulation" prompt="This is the last simulated day. It must be comprised within the range of dates provided within the data files." sqref="C32:D32">
-      <formula1>1</formula1>
-      <formula2>73051</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Historical interconnection flows" prompt="Historical flows" sqref="C68"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value" prompt="In case no data file is provided. This single value is used for all the sets." sqref="F70:F74 F77:F78 F80:F81"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the demand curves of all the zones by the provided factor" sqref="C112"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the wind generation curves of all the zones by the provided factor" sqref="C113"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the PV generation curves of all the zones by the provided factor" sqref="C114"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the storage capacity in all the zones by the provided factor" sqref="C115"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to the gams folder" prompt="Example:_x000a_C:\GAMS\win64\24.3_x000a__x000a_If unspecified or non-existing, Dispa-SET will try to determine the path automatically. " sqref="C22"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value (% of max load)" prompt="In case no data file is provided. This single value is used for all the sets._x000a_It is defined in % of the maximum load throughout the simulation period." sqref="F66"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value (in EUR/t_co2)" prompt="In case no data file is provided. This single value is used for all the sets." sqref="F75"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Look Ahead Period" prompt="This is the overlap period between consecutive optimization of the rolling horizon._x000a__x000a_If HorizonLength is 3 and  LookAhead is 1, optimization length is 4 days, discarding 1 day each time" sqref="C34">
-      <formula1>0</formula1>
-      <formula2>365</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Horizon length" prompt="This is the number of days to be optimized in the rolling horizon framework. Does not include the overlap period with the next optimization horizon. _x000a__x000a_If HorizonLength is 3 and  LookAhead is 1, optimization length is 4 days, discarding 1 day each time" sqref="C33">
-      <formula1>1</formula1>
-      <formula2>365</formula2>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Lists!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>F88:G102 C88:C102</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Write excel files" prompt="If set to true, one excel file per parameter will be written in the simulation environment directory.">
-          <x14:formula1>
-            <xm:f>Lists!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>C19:D19</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Write GDX file" prompt="If set to true, the gdx file is written in the simulation environment directory. Note that the gdx file is required to run the GAMS optimization.">
-          <x14:formula1>
-            <xm:f>Lists!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>C20:D20</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Write Pickles file" prompt="If set to true, one pickle file (python data format) is written in the simulation environment directory to allow quickly retrieving the simulation inputs">
-          <x14:formula1>
-            <xm:f>Lists!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>C21:D21</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Reserve Calculation" prompt="This inputs allows selecting the metodology for reserve sizing_x000a_">
-          <x14:formula1>
-            <xm:f>Lists!$C$2:$C$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>C48</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Allow Curtailment of Renewables" prompt="Set to true to allow curtailment">
-          <x14:formula1>
-            <xm:f>Lists!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>C49</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Lists!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C132:C146</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Simulation type" prompt="Select the type of optimization to perform.">
-          <x14:formula1>
-            <xm:f>Lists!$B$2:$B$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>C47</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
